--- a/biology/Histoire de la zoologie et de la botanique/Erwin_Stresemann/Erwin_Stresemann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Erwin_Stresemann/Erwin_Stresemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erwin Stresemann est un ornithologue et un historien des sciences allemand, né le 22 novembre 1889 et mort le 20 novembre 1972.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1921, il prend la direction du département ornithologique du musée d'histoire naturelle de Berlin et encourage de nombreux jeunes dans l’étude des sciences naturelles comme Ernst Mayr (1904-2005) et Bernhard Rensch (1900-1990). Il dirige durant longtemps la revue Journal für Ornithologie. Sa principale contribution est le volume consacré aux oiseaux (1927 à 1934) dans le manuel de zoologie allemand.
 Il base sa classification sur celle de Max Fürbringer (1846-1920) et de Hans Friedrich Gadow (1855-1928) mais à la place des 20 ordres reconnus par Gadow, il en reconnaître 48, chiffre qu’il porte à 51 en 1959.
